--- a/KontoNr LookupTable.xlsx
+++ b/KontoNr LookupTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\_Dahn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Roennburg\Documents\GH_GitManaged\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>FullName</t>
   </si>
@@ -153,9 +153,6 @@
     <t>NK</t>
   </si>
   <si>
-    <t>Bank Nebenkosten für Überweisung</t>
-  </si>
-  <si>
     <t>G.Konto</t>
   </si>
   <si>
@@ -175,6 +172,21 @@
   </si>
   <si>
     <t>Spalte2</t>
+  </si>
+  <si>
+    <t>Chep Paletten</t>
+  </si>
+  <si>
+    <t>Bank Nebenkosten für Überweisung, Nicht buchung</t>
+  </si>
+  <si>
+    <t>HELMUT WESTARP</t>
+  </si>
+  <si>
+    <t>Westarp Entsorgung</t>
+  </si>
+  <si>
+    <t>Auto?</t>
   </si>
 </sst>
 </file>
@@ -230,8 +242,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:B11" totalsRowShown="0">
-  <autoFilter ref="A1:B11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:B12" totalsRowShown="0">
+  <autoFilter ref="A1:B12"/>
   <tableColumns count="2">
     <tableColumn id="1" name="FullName"/>
     <tableColumn id="2" name="HOBA Name"/>
@@ -252,8 +264,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="D8:E14" totalsRowShown="0">
-  <autoFilter ref="D8:E14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="D10:E16" totalsRowShown="0">
+  <autoFilter ref="D10:E16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Words"/>
     <tableColumn id="2" name="Means(Text)"/>
@@ -263,8 +275,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="D4:E7" totalsRowShown="0">
-  <autoFilter ref="D4:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="D4:E9" totalsRowShown="0">
+  <autoFilter ref="D4:E9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="G.Konto"/>
     <tableColumn id="2" name="Bez"/>
@@ -561,7 +573,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -633,7 +645,7 @@
         <v>1570</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -661,7 +673,7 @@
         <v>3200</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,11 +683,11 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
+      <c r="D8">
+        <v>4933</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -685,11 +697,11 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
+      <c r="D9">
+        <v>4500</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -700,10 +712,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -714,42 +726,62 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -757,7 +789,7 @@
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -765,7 +797,7 @@
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/KontoNr LookupTable.xlsx
+++ b/KontoNr LookupTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7740" windowHeight="6300" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7740" windowHeight="6300" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Calc Skto BETR" sheetId="7" r:id="rId1"/>
@@ -17,17 +17,19 @@
     <sheet name="Simplecalc" sheetId="5" r:id="rId3"/>
     <sheet name="Normal" sheetId="1" r:id="rId4"/>
     <sheet name="GKto für Bank" sheetId="4" r:id="rId5"/>
-    <sheet name="GKto L RG" sheetId="2" r:id="rId6"/>
-    <sheet name="GKto für Wagen" sheetId="3" r:id="rId7"/>
+    <sheet name="Skto Tages" sheetId="8" r:id="rId6"/>
+    <sheet name="GKto L RG" sheetId="2" r:id="rId7"/>
+    <sheet name="GKto für Wagen" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Betrag">'Calc Skto BETR'!$B$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Tabelle8[#All]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Tabelle8[#All]</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="22" r:id="rId9"/>
+    <pivotCache cacheId="23" r:id="rId10"/>
+    <pivotCache cacheId="24" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="386">
   <si>
     <t>FullName</t>
   </si>
@@ -919,9 +921,6 @@
     <t>Faugier Clément - Privas</t>
   </si>
   <si>
-    <t>Spalte4</t>
-  </si>
-  <si>
     <t>Salsicce di cinghiale al Tartufo Estivo</t>
   </si>
   <si>
@@ -980,6 +979,261 @@
   </si>
   <si>
     <t>Skonti 7%</t>
+  </si>
+  <si>
+    <t>3% Dekl</t>
+  </si>
+  <si>
+    <t>19% MwST</t>
+  </si>
+  <si>
+    <t>KDNR</t>
+  </si>
+  <si>
+    <t>OEUF CUIT F TO FLY VERR</t>
+  </si>
+  <si>
+    <t>Wachteleier</t>
+  </si>
+  <si>
+    <t>RI CS MOYEN</t>
+  </si>
+  <si>
+    <t>HE CS MOY</t>
+  </si>
+  <si>
+    <r>
+      <t>Polenta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( Couscous )</t>
+    </r>
+  </si>
+  <si>
+    <t>KW #</t>
+  </si>
+  <si>
+    <t>iloxx</t>
+  </si>
+  <si>
+    <t>Pakete TT.MM.JJJJ</t>
+  </si>
+  <si>
+    <t>alte Günther HELLRIEGEL</t>
+  </si>
+  <si>
+    <t>Tartufo Estivo in tritume.</t>
+  </si>
+  <si>
+    <t>Trüffel Dz.</t>
+  </si>
+  <si>
+    <t>Lentille Jaune</t>
+  </si>
+  <si>
+    <t>Linsen</t>
+  </si>
+  <si>
+    <t>Morilles spéciales en sachtet</t>
+  </si>
+  <si>
+    <t>Pilz</t>
+  </si>
+  <si>
+    <t>Tagliatartufi in Acciaio Inox</t>
+  </si>
+  <si>
+    <t>Trüffelhobel</t>
+  </si>
+  <si>
+    <t>Bennantes</t>
+  </si>
+  <si>
+    <t>DC OLOMOUC CZ 77900 OLOMUC</t>
+  </si>
+  <si>
+    <t>Kaufland</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>Helix Lucorum</t>
+  </si>
+  <si>
+    <t>Schnecken</t>
+  </si>
+  <si>
+    <t>FIL.ALICI OSG</t>
+  </si>
+  <si>
+    <t>Sardellen</t>
+  </si>
+  <si>
+    <t>FIL.SAR.OSG SUD PESCA</t>
+  </si>
+  <si>
+    <t>VONG.NAT.</t>
+  </si>
+  <si>
+    <t>Vongole</t>
+  </si>
+  <si>
+    <t>Trüffelflocken</t>
+  </si>
+  <si>
+    <t>Scaglie di tartufo estivo essiccato</t>
+  </si>
+  <si>
+    <t>Bedeutung</t>
+  </si>
+  <si>
+    <t>Ail des ours tomates</t>
+  </si>
+  <si>
+    <t>Pesto rosso</t>
+  </si>
+  <si>
+    <t>Morilles</t>
+  </si>
+  <si>
+    <t>Cépes</t>
+  </si>
+  <si>
+    <t>Orientale</t>
+  </si>
+  <si>
+    <t>Piment d'espelette</t>
+  </si>
+  <si>
+    <t>SALADETTE TRUFFELS</t>
+  </si>
+  <si>
+    <t>FRAMBOISE</t>
+  </si>
+  <si>
+    <t>Fruits des bois</t>
+  </si>
+  <si>
+    <t>balsamique</t>
+  </si>
+  <si>
+    <t>piment espelette</t>
+  </si>
+  <si>
+    <t>au citron</t>
+  </si>
+  <si>
+    <t>O'livades verte</t>
+  </si>
+  <si>
+    <t>pesto ail des ours</t>
+  </si>
+  <si>
+    <t>Tomaten Bär Knoblauch</t>
+  </si>
+  <si>
+    <t>Morcheln</t>
+  </si>
+  <si>
+    <t>Röhrling</t>
+  </si>
+  <si>
+    <t>östlich</t>
+  </si>
+  <si>
+    <t>Espelette Pfeffer</t>
+  </si>
+  <si>
+    <t>Trüffel-Saladette</t>
+  </si>
+  <si>
+    <t>RASPBERRY</t>
+  </si>
+  <si>
+    <t>Wildfrüchte</t>
+  </si>
+  <si>
+    <t>Balsamico</t>
+  </si>
+  <si>
+    <t>mit Zitrone</t>
+  </si>
+  <si>
+    <t>O'Livades grün</t>
+  </si>
+  <si>
+    <t>Pesto Knoblauchbären</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Pilzen</t>
+  </si>
+  <si>
+    <t>Pfeffer</t>
+  </si>
+  <si>
+    <t>Salat</t>
+  </si>
+  <si>
+    <t>Oliven</t>
+  </si>
+  <si>
+    <t>Von</t>
+  </si>
+  <si>
+    <t>SKtoTage</t>
+  </si>
+  <si>
+    <t>Bezahlt workdays diff</t>
+  </si>
+  <si>
+    <t>KDNr</t>
+  </si>
+  <si>
+    <t>Später(Tage)</t>
+  </si>
+  <si>
+    <t>SktoBetr</t>
+  </si>
+  <si>
+    <t>Skto Erwarte</t>
+  </si>
+  <si>
+    <t>P_Skto</t>
+  </si>
+  <si>
+    <t>B_Skto</t>
+  </si>
+  <si>
+    <t>Betrag2</t>
+  </si>
+  <si>
+    <t>Nur Später</t>
+  </si>
+  <si>
+    <t>Summe von Nur Später</t>
+  </si>
+  <si>
+    <t>(Mehrere Elemente)</t>
+  </si>
+  <si>
+    <t>ZahlBetr</t>
+  </si>
+  <si>
+    <t>Caciotta al tartufo Estivo</t>
+  </si>
+  <si>
+    <t>Caciotta</t>
   </si>
 </sst>
 </file>
@@ -990,12 +1244,12 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000\ _€;[Red]\-#,##0.0000\ _€"/>
-    <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,6 +1295,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1216,7 +1485,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1260,18 +1529,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1279,56 +1564,9 @@
     <cellStyle name="Standard 2" xfId="3"/>
     <cellStyle name="Währung 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="144">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0000\ _€;[Red]\-#,##0.0000\ _€"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="8" formatCode="#,##0.00\ _€;[Red]\-#,##0.00\ _€"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="8" formatCode="#,##0.00\ _€;[Red]\-#,##0.00\ _€"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="8" formatCode="#,##0.00\ _€;[Red]\-#,##0.00\ _€"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+  <dxfs count="169">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1341,51 +1579,164 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1467,82 +1818,82 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
+      <numFmt numFmtId="166" formatCode="0.0000%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1736,6 +2087,35 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="8" formatCode="#,##0.00\ _€;[Red]\-#,##0.00\ _€"/>
       <fill>
         <patternFill patternType="none">
@@ -1745,6 +2125,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="8" formatCode="#,##0.00\ _€;[Red]\-#,##0.00\ _€"/>
       <fill>
         <patternFill patternType="none">
@@ -1754,6 +2154,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="none">
@@ -1772,22 +2183,100 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2206,6 +2695,58 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2395,8 +2936,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="143"/>
-      <tableStyleElement type="headerRow" dxfId="142"/>
+      <tableStyleElement type="wholeTable" dxfId="168"/>
+      <tableStyleElement type="headerRow" dxfId="167"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2410,68 +2951,118 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" Requires="we">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="App 1"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks noGrp="1"/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/webextensions/webextension/2010/11">
-              <we:webextensionref xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="App 1"/>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dahn Park" refreshedDate="43306.461930902777" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="12">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabelle40"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="RGNr" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="305552" maxValue="306027" count="12">
+        <n v="305552"/>
+        <n v="305685"/>
+        <n v="305637"/>
+        <n v="305806"/>
+        <n v="305826"/>
+        <n v="305880"/>
+        <n v="305871"/>
+        <n v="305872"/>
+        <n v="305824"/>
+        <n v="305905"/>
+        <n v="305913"/>
+        <n v="306027"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="KDNr" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1002521" maxValue="1053130" count="9">
+        <n v="1042671"/>
+        <n v="1004380"/>
+        <n v="1005910"/>
+        <n v="1050751"/>
+        <n v="1042340"/>
+        <n v="1002521"/>
+        <n v="1053130"/>
+        <n v="1004050"/>
+        <n v="1053090"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Betr" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="95.14" maxValue="1523.24"/>
+    </cacheField>
+    <cacheField name="Skto%" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.01" maxValue="0.03"/>
+    </cacheField>
+    <cacheField name="SktoBetr" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.8542000000000001" maxValue="30.4648"/>
+    </cacheField>
+    <cacheField name="Von" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-06-07T00:00:00" maxDate="2018-07-14T00:00:00"/>
+    </cacheField>
+    <cacheField name="SKtoTage" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="14"/>
+    </cacheField>
+    <cacheField name="Skto Erwarte" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-06-21T00:00:00" maxDate="2018-07-28T00:00:00"/>
+    </cacheField>
+    <cacheField name="Bezahlt" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-06-29T00:00:00" maxDate="2018-07-24T00:00:00"/>
+    </cacheField>
+    <cacheField name="Bezahlt workdays diff" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="17"/>
+    </cacheField>
+    <cacheField name="Später(Tage)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-7" maxValue="3"/>
+    </cacheField>
+    <cacheField name="Nur Später" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
+        <n v="3"/>
+        <s v=""/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dahn Park" refreshedDate="42710.462204629628" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="4">
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dahn Park" refreshedDate="43306.461931134261" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="3">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabelle29"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Netto" numFmtId="8">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="372.75" maxValue="1872"/>
+    </cacheField>
+    <cacheField name="Ust_Pct" numFmtId="9">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.19" count="4">
+        <n v="0.19"/>
+        <n v="7.0000000000000007E-2"/>
+        <m/>
+        <n v="0" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ust" numFmtId="8">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="26.092500000000001" maxValue="355.68"/>
+    </cacheField>
+    <cacheField name="Brutto" numFmtId="8">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="398.84250000000003" maxValue="2227.6799999999998"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dahn Park" refreshedDate="43306.461931597223" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="4">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabelle30"/>
   </cacheSource>
@@ -2505,38 +3096,203 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dahn Park" refreshedDate="42710.462204976851" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Tabelle29"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Netto" numFmtId="8">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="462.03" maxValue="538.73"/>
-    </cacheField>
-    <cacheField name="Ust_Pct" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.19" count="3">
-        <n v="0.19"/>
-        <n v="0" u="1"/>
-        <n v="7.0000000000000007E-2" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Ust" numFmtId="8">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="87.785699999999991" maxValue="102.3587"/>
-    </cacheField>
-    <cacheField name="Brutto" numFmtId="8">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="549.81569999999999" maxValue="641.08870000000002"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="12">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="410.24"/>
+    <n v="0.02"/>
+    <n v="8.2048000000000005"/>
+    <d v="2018-06-07T00:00:00"/>
+    <n v="14"/>
+    <d v="2018-06-21T00:00:00"/>
+    <d v="2018-06-29T00:00:00"/>
+    <n v="17"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="443.13"/>
+    <n v="0.02"/>
+    <n v="8.8626000000000005"/>
+    <d v="2018-06-15T00:00:00"/>
+    <n v="8"/>
+    <d v="2018-06-23T00:00:00"/>
+    <d v="2018-06-29T00:00:00"/>
+    <n v="11"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1232.6199999999999"/>
+    <n v="0.02"/>
+    <n v="24.6524"/>
+    <d v="2018-06-13T00:00:00"/>
+    <n v="14"/>
+    <d v="2018-06-27T00:00:00"/>
+    <d v="2018-06-29T00:00:00"/>
+    <n v="13"/>
+    <n v="-1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="1523.24"/>
+    <n v="0.02"/>
+    <n v="30.4648"/>
+    <d v="2018-06-26T00:00:00"/>
+    <n v="14"/>
+    <d v="2018-07-10T00:00:00"/>
+    <d v="2018-07-13T00:00:00"/>
+    <n v="14"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="95.14"/>
+    <n v="0.03"/>
+    <n v="2.8542000000000001"/>
+    <d v="2018-06-28T00:00:00"/>
+    <n v="14"/>
+    <d v="2018-07-12T00:00:00"/>
+    <d v="2018-07-16T00:00:00"/>
+    <n v="13"/>
+    <n v="-1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="197.19"/>
+    <n v="0.02"/>
+    <n v="3.9438"/>
+    <d v="2018-07-03T00:00:00"/>
+    <n v="14"/>
+    <d v="2018-07-17T00:00:00"/>
+    <d v="2018-07-16T00:00:00"/>
+    <n v="10"/>
+    <n v="-4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="211.86"/>
+    <n v="0.03"/>
+    <n v="6.3558000000000003"/>
+    <d v="2018-07-02T00:00:00"/>
+    <n v="14"/>
+    <d v="2018-07-16T00:00:00"/>
+    <d v="2018-07-17T00:00:00"/>
+    <n v="12"/>
+    <n v="-2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="143.04"/>
+    <n v="0.03"/>
+    <n v="4.2911999999999999"/>
+    <d v="2018-07-02T00:00:00"/>
+    <n v="14"/>
+    <d v="2018-07-16T00:00:00"/>
+    <d v="2018-07-17T00:00:00"/>
+    <n v="12"/>
+    <n v="-2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="638.16"/>
+    <n v="0.01"/>
+    <n v="6.3815999999999997"/>
+    <d v="2018-06-27T00:00:00"/>
+    <n v="14"/>
+    <d v="2018-07-11T00:00:00"/>
+    <d v="2018-07-17T00:00:00"/>
+    <n v="15"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <n v="611.51"/>
+    <n v="0.02"/>
+    <n v="12.2302"/>
+    <d v="2018-07-04T00:00:00"/>
+    <n v="14"/>
+    <d v="2018-07-18T00:00:00"/>
+    <d v="2018-07-18T00:00:00"/>
+    <n v="11"/>
+    <n v="-3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <n v="110.51"/>
+    <n v="0.03"/>
+    <n v="3.3153000000000001"/>
+    <d v="2018-07-04T00:00:00"/>
+    <n v="14"/>
+    <d v="2018-07-18T00:00:00"/>
+    <d v="2018-07-19T00:00:00"/>
+    <n v="12"/>
+    <n v="-2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <n v="338.02"/>
+    <n v="0.01"/>
+    <n v="3.3801999999999999"/>
+    <d v="2018-07-13T00:00:00"/>
+    <n v="14"/>
+    <d v="2018-07-27T00:00:00"/>
+    <d v="2018-07-23T00:00:00"/>
+    <n v="7"/>
+    <n v="-7"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+  <r>
+    <n v="1872"/>
+    <x v="0"/>
+    <n v="355.68"/>
+    <n v="2227.6799999999998"/>
+  </r>
+  <r>
+    <n v="372.75"/>
+    <x v="1"/>
+    <n v="26.092500000000001"/>
+    <n v="398.84250000000003"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
   <r>
     <s v="R24239"/>
@@ -2565,25 +3321,144 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
-  <r>
-    <n v="538.73"/>
-    <x v="0"/>
-    <n v="102.3587"/>
-    <n v="641.08870000000002"/>
-  </r>
-  <r>
-    <n v="462.03"/>
-    <x v="0"/>
-    <n v="87.785699999999991"/>
-    <n v="549.81569999999999"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F22:I26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="9" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Summe von Brutto" fld="3" baseField="1" baseItem="2" numFmtId="164"/>
+    <dataField name="Summe von Ust" fld="2" baseField="1" baseItem="1" numFmtId="8"/>
+    <dataField name="Summe von Netto" fld="0" baseField="1" baseItem="1" numFmtId="8"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="146">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="145">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="144">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I33:J36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Summe von Betrag" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F33:G35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -2625,115 +3500,80 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F22:I24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="9" showAll="0">
-      <items count="4">
-        <item m="1" x="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O3:P10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
         <item x="0"/>
-        <item m="1" x="2"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="1"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="7">
     <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
       <x v="2"/>
     </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Summe von Brutto" fld="3" baseField="1" baseItem="2" numFmtId="164"/>
-    <dataField name="Summe von Ust" fld="2" baseField="1" baseItem="1" numFmtId="8"/>
-    <dataField name="Summe von Netto" fld="0" baseField="1" baseItem="1" numFmtId="8"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="127">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="126">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="125">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I33:J36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
+    <i r="1">
+      <x v="2"/>
+    </i>
     <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -2742,8 +3582,11 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="11" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Summe von Betrag" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von Nur Später" fld="11" baseField="1" baseItem="5"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2758,11 +3601,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Tabelle136" displayName="Tabelle136" ref="A3:C6" totalsRowShown="0">
   <autoFilter ref="A3:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Skto%" dataDxfId="141"/>
-    <tableColumn id="2" name="Original" dataDxfId="140">
+    <tableColumn id="1" name="Skto%" dataDxfId="166"/>
+    <tableColumn id="2" name="Original" dataDxfId="165">
       <calculatedColumnFormula>Betrag/(100%-Tabelle136[[#This Row],[Skto%]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Skto Abzug" dataDxfId="139">
+    <tableColumn id="3" name="Skto Abzug" dataDxfId="164">
       <calculatedColumnFormula>Tabelle136[[#This Row],[Original]]-Betrag</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2771,8 +3614,19 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="D23:E47" totalsRowShown="0">
-  <autoFilter ref="D23:E47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="D1:E2" totalsRowShown="0">
+  <autoFilter ref="D1:E2"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Heiß"/>
+    <tableColumn id="2" name="Unter"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="D23:E60" totalsRowShown="0">
+  <autoFilter ref="D23:E60"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Words"/>
     <tableColumn id="2" name="Means(Text)"/>
@@ -2781,7 +3635,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="D4:E18" totalsRowShown="0">
   <autoFilter ref="D4:E18"/>
   <tableColumns count="2">
@@ -2792,7 +3646,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A31:B37" totalsRowShown="0">
   <autoFilter ref="A31:B37"/>
   <tableColumns count="2">
@@ -2803,29 +3657,29 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="H4:J13" totalsRowShown="0">
   <autoFilter ref="H4:J13"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Spalte1"/>
-    <tableColumn id="2" name="Spalte2" dataDxfId="105" dataCellStyle="Prozent"/>
+    <tableColumn id="2" name="Spalte2" dataDxfId="124" dataCellStyle="Prozent"/>
     <tableColumn id="3" name="Info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle20" displayName="Tabelle20" ref="H19:H22" totalsRowCount="1" headerRowDxfId="104" dataDxfId="103">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle20" displayName="Tabelle20" ref="H19:H22" totalsRowCount="1" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="H19:H21"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Betrag" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="1" name="Betrag" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabelle25" displayName="Tabelle25" ref="H26:I28" totalsRowShown="0">
   <autoFilter ref="H26:I28"/>
   <tableColumns count="2">
@@ -2836,41 +3690,74 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabelle11" displayName="Tabelle11" ref="A1:D25" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Tabelle39" displayName="Tabelle39" ref="L23:N37" totalsRowShown="0">
+  <autoFilter ref="L23:N37"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Words"/>
+    <tableColumn id="2" name="Bedeutung"/>
+    <tableColumn id="3" name="Typ"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabelle11" displayName="Tabelle11" ref="A1:D25" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A1:D25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Gkto" dataDxfId="98"/>
-    <tableColumn id="2" name="Name" dataDxfId="97"/>
-    <tableColumn id="3" name="Ust" dataDxfId="96"/>
-    <tableColumn id="4" name="Text" dataDxfId="95"/>
+    <tableColumn id="1" name="Gkto" dataDxfId="117"/>
+    <tableColumn id="2" name="Name" dataDxfId="116"/>
+    <tableColumn id="3" name="Ust" dataDxfId="115"/>
+    <tableColumn id="4" name="Text" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle12" displayName="Tabelle12" ref="E1:G2" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle12" displayName="Tabelle12" ref="E1:G2" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="E1:G2"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Verwendungszweck" dataDxfId="92"/>
-    <tableColumn id="2" name="Name" dataDxfId="91"/>
-    <tableColumn id="3" name="KtoNr" dataDxfId="90"/>
+    <tableColumn id="1" name="Verwendungszweck" dataDxfId="111"/>
+    <tableColumn id="2" name="Name" dataDxfId="110"/>
+    <tableColumn id="3" name="KtoNr" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabelle13" displayName="Tabelle13" ref="E4:H7" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tabelle1332" displayName="Tabelle1332" ref="A1:E5" totalsRowCount="1" headerRowDxfId="163" dataDxfId="162">
+  <autoFilter ref="A1:E4"/>
+  <sortState ref="A2:E18">
+    <sortCondition ref="E1:E18"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="5" name="RGNr" dataDxfId="161"/>
+    <tableColumn id="1" name="Betrag" dataDxfId="160" totalsRowDxfId="159"/>
+    <tableColumn id="2" name="P_Skto" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="3" name="B_Skto" dataDxfId="156" totalsRowDxfId="155" dataCellStyle="Währung 2">
+      <calculatedColumnFormula>Tabelle1332[[#This Row],[Betrag]]*Tabelle1332[[#This Row],[P_Skto]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Betrag2" totalsRowFunction="sum" dataDxfId="154" totalsRowDxfId="153" dataCellStyle="Währung 2">
+      <calculatedColumnFormula>Tabelle1332[[#This Row],[Betrag]]*(100%-Tabelle1332[[#This Row],[P_Skto]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabelle13" displayName="Tabelle13" ref="E4:H7" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="E4:H7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Spalte1" dataDxfId="87"/>
-    <tableColumn id="2" name="Spalte2" dataDxfId="86"/>
-    <tableColumn id="3" name="Spalte3" dataDxfId="85" dataCellStyle="Währung 2">
+    <tableColumn id="1" name="Spalte1" dataDxfId="106"/>
+    <tableColumn id="2" name="Spalte2" dataDxfId="105"/>
+    <tableColumn id="3" name="Spalte3" dataDxfId="104" dataCellStyle="Währung 2">
       <calculatedColumnFormula>Tabelle13[[#This Row],[Spalte1]]*Tabelle13[[#This Row],[Spalte2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Spalte32" dataDxfId="84" dataCellStyle="Währung 2">
+    <tableColumn id="4" name="Spalte32" dataDxfId="103" dataCellStyle="Währung 2">
       <calculatedColumnFormula>Tabelle13[[#This Row],[Spalte1]]*(100%-Tabelle13[[#This Row],[Spalte2]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2878,104 +3765,84 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle14" displayName="Tabelle14" ref="E12:H16" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle14" displayName="Tabelle14" ref="E12:H16" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="E12:H16"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Verwendungszweck" dataDxfId="81"/>
-    <tableColumn id="2" name="ST Nr" dataDxfId="80"/>
-    <tableColumn id="3" name="G.Kto" dataDxfId="79"/>
-    <tableColumn id="4" name="TEXT2" dataDxfId="78"/>
+    <tableColumn id="1" name="Verwendungszweck" dataDxfId="100"/>
+    <tableColumn id="2" name="ST Nr" dataDxfId="99"/>
+    <tableColumn id="3" name="G.Kto" dataDxfId="98"/>
+    <tableColumn id="4" name="TEXT2" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tabelle1332" displayName="Tabelle1332" ref="A1:E19" totalsRowCount="1" headerRowDxfId="138" dataDxfId="137">
-  <autoFilter ref="A1:E18"/>
-  <sortState ref="A2:E18">
-    <sortCondition ref="E1:E18"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="5" name="Spalte4" dataDxfId="136"/>
-    <tableColumn id="1" name="Spalte1" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="2" name="Spalte2" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="3" name="Spalte3" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="Währung 2">
-      <calculatedColumnFormula>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="Spalte32" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="Währung 2">
-      <calculatedColumnFormula>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle15" displayName="Tabelle15" ref="J1:K5" totalsRowCount="1" headerRowDxfId="77" dataDxfId="76" totalsRowDxfId="75">
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle15" displayName="Tabelle15" ref="J1:K5" totalsRowCount="1" headerRowDxfId="96" dataDxfId="95" totalsRowDxfId="94">
   <autoFilter ref="J1:K4"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Spalte1" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="2" name="Spalte2" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="1" name="Spalte1" totalsRowFunction="sum" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="2" name="Spalte2" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle16" displayName="Tabelle16" ref="E20:H22" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle16" displayName="Tabelle16" ref="E20:H22" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="E20:H22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Unser KD NR" dataDxfId="68"/>
-    <tableColumn id="2" name="Kreditor" dataDxfId="67"/>
-    <tableColumn id="3" name="Gkto" dataDxfId="66"/>
-    <tableColumn id="4" name="TEXT" dataDxfId="65"/>
+    <tableColumn id="1" name="Unser KD NR" dataDxfId="87"/>
+    <tableColumn id="2" name="Kreditor" dataDxfId="86"/>
+    <tableColumn id="3" name="Gkto" dataDxfId="85"/>
+    <tableColumn id="4" name="TEXT" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle18" displayName="Tabelle18" ref="J30:N40" totalsRowCount="1" headerRowDxfId="64" dataDxfId="63" totalsRowDxfId="62">
-  <autoFilter ref="J30:N39"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="RG" dataDxfId="61" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Betr" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="Skto%" dataDxfId="59" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Skto" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="1">
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle18" displayName="Tabelle18" ref="J30:O50" totalsRowCount="1" headerRowDxfId="83" dataDxfId="82" totalsRowDxfId="81">
+  <autoFilter ref="J30:O49"/>
+  <tableColumns count="6">
+    <tableColumn id="6" name="KDNR" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="1" name="RG" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="2" name="Betr" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="3" name="Skto%" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="4" name="Skto" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="71">
       <calculatedColumnFormula>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Gesamt" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="0">
-      <calculatedColumnFormula>Tabelle18[[#This Row],[Betr]]*(100%-Tabelle18[[#This Row],[Skto%]])</calculatedColumnFormula>
+    <tableColumn id="5" name="Gesamt" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="69">
+      <calculatedColumnFormula>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle19" displayName="Tabelle19" ref="E25:G27" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle19" displayName="Tabelle19" ref="E25:G27" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="E25:G27"/>
   <tableColumns count="3">
-    <tableColumn id="2" name="KtoNr" dataDxfId="54"/>
-    <tableColumn id="3" name="Text" dataDxfId="53"/>
-    <tableColumn id="4" name="Kto Bez" dataDxfId="52"/>
+    <tableColumn id="2" name="KtoNr" dataDxfId="66"/>
+    <tableColumn id="3" name="Text" dataDxfId="65"/>
+    <tableColumn id="4" name="Kto Bez" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle21" displayName="Tabelle21" ref="J17:M18" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle21" displayName="Tabelle21" ref="J17:M18" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="J17:M18"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Betrag" dataDxfId="49"/>
-    <tableColumn id="2" name="Bezahlt" dataDxfId="48"/>
-    <tableColumn id="3" name="Abzüge" dataDxfId="47">
+    <tableColumn id="1" name="Betrag" dataDxfId="61"/>
+    <tableColumn id="2" name="Bezahlt" dataDxfId="60"/>
+    <tableColumn id="3" name="Abzüge" dataDxfId="59">
       <calculatedColumnFormula>Tabelle21[Betrag]-Tabelle21[Bezahlt]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Prozent" dataDxfId="46" dataCellStyle="Prozent">
+    <tableColumn id="4" name="Prozent" dataDxfId="58" dataCellStyle="Prozent">
       <calculatedColumnFormula>Tabelle21[Abzüge]/Tabelle21[Betrag]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2983,49 +3850,66 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle22" displayName="Tabelle22" ref="E31:F34" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle22" displayName="Tabelle22" ref="E31:F34" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="E31:F34"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="PersonalNummer" dataDxfId="43"/>
-    <tableColumn id="2" name="Text" dataDxfId="42"/>
+    <tableColumn id="1" name="PersonalNummer" dataDxfId="55"/>
+    <tableColumn id="2" name="Text" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabelle23" displayName="Tabelle23" ref="A26:B29" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabelle23" displayName="Tabelle23" ref="A26:B29" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A26:B29"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Spalte1" dataDxfId="39"/>
-    <tableColumn id="2" name="Sammel Kto" dataDxfId="38"/>
+    <tableColumn id="1" name="Spalte1" dataDxfId="51"/>
+    <tableColumn id="2" name="Sammel Kto" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabelle26" displayName="Tabelle26" ref="A31:B33" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabelle26" displayName="Tabelle26" ref="A31:B33" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A31:B33"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Konto Nr" dataDxfId="35"/>
-    <tableColumn id="2" name="Text" dataDxfId="34"/>
+    <tableColumn id="1" name="Konto Nr" dataDxfId="47"/>
+    <tableColumn id="2" name="Text" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabelle32" displayName="Tabelle32" ref="L1:O5" totalsRowCount="1" headerRowDxfId="33" dataDxfId="32" totalsRowDxfId="31">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Tabelle2137" displayName="Tabelle2137" ref="I1:L3" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151">
+  <autoFilter ref="I1:L3"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Betrag" dataDxfId="150"/>
+    <tableColumn id="2" name="Bezahlt" dataDxfId="149"/>
+    <tableColumn id="3" name="Abzüge" dataDxfId="148">
+      <calculatedColumnFormula>Tabelle2137[Betrag]-Tabelle2137[Bezahlt]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Prozent" dataDxfId="147" dataCellStyle="Prozent">
+      <calculatedColumnFormula>Tabelle2137[Abzüge]/Tabelle2137[Betrag]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabelle32" displayName="Tabelle32" ref="L1:O5" totalsRowCount="1" headerRowDxfId="45" dataDxfId="44" totalsRowDxfId="43">
   <autoFilter ref="L1:O4"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Betr" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="2" name="Gesamt" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="3" name="Abzug" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="1" name="Betr" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" name="Gesamt" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="3" name="Abzug" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>Tabelle32[[#This Row],[Betr]]-Tabelle32[[#This Row],[Gesamt]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Abzug PCT" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Prozent">
+    <tableColumn id="4" name="Abzug PCT" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Prozent">
       <calculatedColumnFormula>Tabelle32[[#This Row],[Abzug]]/Tabelle32[[#This Row],[Betr]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3033,18 +3917,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Tabelle34" displayName="Tabelle34" ref="J21:O27" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21">
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Tabelle34" displayName="Tabelle34" ref="J21:O27" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="J21:O26"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" totalsRowLabel="Ergebnis" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="6" name="KtoNr" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="2" name="Skto%" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="3" name="Betr" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="4" name="Abzuge" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="1" name="Name" totalsRowLabel="Ergebnis" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="6" name="KtoNr" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="2" name="Skto%" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="3" name="Betr" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="4" name="Abzuge" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>Tabelle34[Betr]*Tabelle34[Skto%]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Netto" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="5" name="Netto" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>Tabelle34[Betr]*(100%-Tabelle34[Skto%])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3052,12 +3936,138 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Tabelle40" displayName="Tabelle40" ref="A1:M26" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:M26"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="RGNr" dataDxfId="19"/>
+    <tableColumn id="2" name="KDNr" dataDxfId="18"/>
+    <tableColumn id="9" name="Betr" dataDxfId="17"/>
+    <tableColumn id="10" name="Skto%" dataDxfId="16"/>
+    <tableColumn id="11" name="SktoBetr" dataDxfId="15">
+      <calculatedColumnFormula>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Von" dataDxfId="14"/>
+    <tableColumn id="4" name="SKtoTage" dataDxfId="13"/>
+    <tableColumn id="5" name="Skto Erwarte" dataDxfId="12">
+      <calculatedColumnFormula>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Bezahlt" dataDxfId="11"/>
+    <tableColumn id="7" name="Bezahlt workdays diff" dataDxfId="10">
+      <calculatedColumnFormula>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Später(Tage)" dataDxfId="9">
+      <calculatedColumnFormula>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Nur Später" dataDxfId="8">
+      <calculatedColumnFormula>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="ZahlBetr" dataDxfId="7">
+      <calculatedColumnFormula>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A3:B7" totalsRowShown="0">
+  <autoFilter ref="A3:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Art.Nr"/>
+    <tableColumn id="2" name="Bez"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="A24:G30" totalsRowShown="0">
+  <autoFilter ref="A24:G30"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Spalte1" dataDxfId="6"/>
+    <tableColumn id="2" name="KtoNr" dataDxfId="5"/>
+    <tableColumn id="3" name="EINGANG"/>
+    <tableColumn id="8" name="Text Eingang"/>
+    <tableColumn id="4" name="AUSGANG(Fracht)"/>
+    <tableColumn id="5" name="Ausgang"/>
+    <tableColumn id="9" name="Text Ausgang"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle9" displayName="Tabelle9" ref="F6:G7" totalsRowShown="0">
+  <autoFilter ref="F6:G7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Modell"/>
+    <tableColumn id="2" name="G.Kto"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle118" displayName="Tabelle118" ref="I13:J15" totalsRowShown="0">
+  <autoFilter ref="I13:J15"/>
+  <sortState ref="I14:J35">
+    <sortCondition ref="I1:I15"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="DATUM" dataDxfId="4"/>
+    <tableColumn id="2" name="KW" dataDxfId="3">
+      <calculatedColumnFormula>WEEKNUM(Tabelle118[[#This Row],[DATUM]],21)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabelle24" displayName="Tabelle24" ref="F3:G4" totalsRowShown="0">
+  <autoFilter ref="F3:G4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Gkto"/>
+    <tableColumn id="2" name="Bez"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Tabelle838" displayName="Tabelle838" ref="A10:G17" totalsRowShown="0">
+  <autoFilter ref="A10:G17"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Spalte1" dataDxfId="2"/>
+    <tableColumn id="2" name="KtoNr" dataDxfId="1"/>
+    <tableColumn id="3" name="EINGANG"/>
+    <tableColumn id="8" name="Text Eingang"/>
+    <tableColumn id="4" name="AUSGANG(Fracht)"/>
+    <tableColumn id="5" name="Ausgang"/>
+    <tableColumn id="9" name="Text Ausgang"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Tabelle38" displayName="Tabelle38" ref="D1:E2" totalsRowShown="0">
+  <autoFilter ref="D1:E2"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Bennantes" dataDxfId="0"/>
+    <tableColumn id="2" name="Ist"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabelle27" displayName="Tabelle27" ref="A1:G6" totalsRowCount="1">
   <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Brutto" totalsRowFunction="sum"/>
-    <tableColumn id="2" name="Ust_Pct" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="2" name="Ust_Pct" dataDxfId="143" totalsRowDxfId="142"/>
     <tableColumn id="3" name="Ust" totalsRowFunction="sum">
       <calculatedColumnFormula>Tabelle27[Brutto]-(Tabelle27[Brutto]/(100%+Tabelle27[Ust_Pct]))</calculatedColumnFormula>
     </tableColumn>
@@ -3076,72 +4086,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A3:B7" totalsRowShown="0">
-  <autoFilter ref="A3:B7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Art.Nr"/>
-    <tableColumn id="2" name="Bez"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="A9:G15" totalsRowShown="0">
-  <autoFilter ref="A9:G15"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Spalte1" dataDxfId="8"/>
-    <tableColumn id="2" name="KtoNr" dataDxfId="7"/>
-    <tableColumn id="3" name="EINGANG"/>
-    <tableColumn id="8" name="Text Eingang"/>
-    <tableColumn id="4" name="AUSGANG(Fracht)"/>
-    <tableColumn id="5" name="Ausgang"/>
-    <tableColumn id="9" name="Text Ausgang"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle9" displayName="Tabelle9" ref="F6:G7" totalsRowShown="0">
-  <autoFilter ref="F6:G7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Modell"/>
-    <tableColumn id="2" name="G.Kto"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle118" displayName="Tabelle118" ref="I13:J15" totalsRowShown="0">
-  <autoFilter ref="I13:J15"/>
-  <sortState ref="I14:J35">
-    <sortCondition ref="I1:I15"/>
-  </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" name="DATUM" dataDxfId="6"/>
-    <tableColumn id="2" name="KW" dataDxfId="5">
-      <calculatedColumnFormula>WEEKNUM(Tabelle118[[#This Row],[DATUM]],21)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabelle24" displayName="Tabelle24" ref="F3:G4" totalsRowShown="0">
-  <autoFilter ref="F3:G4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Gkto"/>
-    <tableColumn id="2" name="Bez"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabelle10" displayName="Tabelle10" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11"/>
   <tableColumns count="2">
@@ -3152,28 +4097,28 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabelle28" displayName="Tabelle28" ref="J1:L4" totalsRowShown="0">
   <autoFilter ref="J1:L4"/>
   <tableColumns count="3">
-    <tableColumn id="3" name="Spalte2" dataDxfId="122"/>
-    <tableColumn id="1" name="Ust_Pct" dataDxfId="121"/>
+    <tableColumn id="3" name="Spalte2" dataDxfId="141"/>
+    <tableColumn id="1" name="Ust_Pct" dataDxfId="140"/>
     <tableColumn id="2" name="Spalte1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabelle29" displayName="Tabelle29" ref="A15:D19" totalsRowCount="1">
   <autoFilter ref="A15:D18"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Netto" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="1" name="Netto" dataDxfId="139" totalsRowDxfId="138"/>
     <tableColumn id="2" name="Ust_Pct"/>
-    <tableColumn id="3" name="Ust" dataDxfId="118" totalsRowDxfId="117">
+    <tableColumn id="3" name="Ust" dataDxfId="137" totalsRowDxfId="136">
       <calculatedColumnFormula>Tabelle29[[#This Row],[Netto]]*Tabelle29[[#This Row],[Ust_Pct]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Brutto" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="4" name="Brutto" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="134">
       <calculatedColumnFormula>Tabelle29[[#This Row],[Netto]]*(100%+Tabelle29[[#This Row],[Ust_Pct]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3181,29 +4126,29 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabelle30" displayName="Tabelle30" ref="A23:D27" totalsRowShown="0">
   <autoFilter ref="A23:D27"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="RGNr" dataDxfId="114"/>
-    <tableColumn id="3" name="Kreditor" dataDxfId="113"/>
-    <tableColumn id="1" name="Betrag" dataDxfId="112"/>
+    <tableColumn id="4" name="RGNr" dataDxfId="133"/>
+    <tableColumn id="3" name="Kreditor" dataDxfId="132"/>
+    <tableColumn id="1" name="Betrag" dataDxfId="131"/>
     <tableColumn id="2" name="Bez"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tabelle2934" displayName="Tabelle2934" ref="A42:D45">
   <autoFilter ref="A42:D45"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Brutto" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="1" name="Brutto" dataDxfId="130" totalsRowDxfId="129"/>
     <tableColumn id="2" name="Ust_Pct"/>
-    <tableColumn id="4" name="Netto" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108">
+    <tableColumn id="4" name="Netto" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127">
       <calculatedColumnFormula>Tabelle2934[[#This Row],[Brutto]] / (100%+Tabelle2934[[#This Row],[Ust_Pct]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Ust" dataDxfId="107" totalsRowDxfId="106">
+    <tableColumn id="3" name="Ust" dataDxfId="126" totalsRowDxfId="125">
       <calculatedColumnFormula>Tabelle2934[[#This Row],[Brutto]] - Tabelle2934[[#This Row],[Netto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3211,7 +4156,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:B30" totalsRowShown="0">
   <autoFilter ref="A1:B30"/>
   <tableColumns count="2">
@@ -3222,21 +4167,10 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="D1:E2" totalsRowShown="0">
-  <autoFilter ref="D1:E2"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Heiß"/>
-    <tableColumn id="2" name="Unter"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3274,7 +4208,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3346,7 +4280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3494,88 +4428,76 @@
 </a:theme>
 </file>
 
-<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{76AFD4BA-C055-4AC9-B48D-2B9E310A3960}">
-  <we:reference id="wa104379895" version="1.0.0.0" store="de-DE" storeType="OMEX"/>
-  <we:alternateReferences>
-    <we:reference id="WA104379895" version="1.0.0.0" store="WA104379895" storeType="OMEX"/>
-  </we:alternateReferences>
-  <we:properties/>
-  <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-</we:webextension>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="43"/>
-    <col min="3" max="3" width="14.5703125" style="43" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="43"/>
+    <col min="1" max="2" width="11.42578125" style="42"/>
+    <col min="3" max="3" width="14.5703125" style="42" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="43">
+      <c r="B1" s="42">
         <v>40.58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>299</v>
       </c>
+      <c r="C3" s="42" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>0.03</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="43">
         <f>Betrag/(100%-Tabelle136[[#This Row],[Skto%]])</f>
         <v>41.835051546391753</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="43">
         <f>Tabelle136[[#This Row],[Original]]-Betrag</f>
         <v>1.2550515463917549</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>0.02</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="43">
         <f>Betrag/(100%-Tabelle136[[#This Row],[Skto%]])</f>
         <v>41.408163265306122</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
         <f>Tabelle136[[#This Row],[Original]]-Betrag</f>
         <v>0.82816326530612372</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>0.01</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="43">
         <f>Betrag/(100%-Tabelle136[[#This Row],[Skto%]])</f>
         <v>40.98989898989899</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="43">
         <f>Tabelle136[[#This Row],[Original]]-Betrag</f>
         <v>0.40989898989899132</v>
       </c>
@@ -3591,320 +4513,197 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle6"/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>126</v>
+        <v>378</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
-        <v>285290</v>
+        <v>379</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <v>305261</v>
       </c>
       <c r="B2" s="8">
-        <v>-2177.98</v>
+        <v>579.15</v>
       </c>
       <c r="C2" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D2" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>-21.779800000000002</v>
+        <v>0.03</v>
+      </c>
+      <c r="D2" s="56">
+        <f>Tabelle1332[[#This Row],[Betrag]]*Tabelle1332[[#This Row],[P_Skto]]</f>
+        <v>17.374499999999998</v>
       </c>
       <c r="E2" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>-2156.2002000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
-        <v>285284</v>
-      </c>
-      <c r="B3" s="8">
-        <v>-2117.14</v>
+        <f>Tabelle1332[[#This Row],[Betrag]]*(100%-Tabelle1332[[#This Row],[P_Skto]])</f>
+        <v>561.77549999999997</v>
+      </c>
+      <c r="I2" s="41">
+        <v>741.96</v>
+      </c>
+      <c r="J2" s="41">
+        <v>712.28</v>
+      </c>
+      <c r="K2" s="41">
+        <f>Tabelle2137[Betrag]-Tabelle2137[Bezahlt]</f>
+        <v>29.680000000000064</v>
+      </c>
+      <c r="L2" s="13">
+        <f>Tabelle2137[Abzüge]/Tabelle2137[Betrag]</f>
+        <v>4.0002156450482593E-2</v>
+      </c>
+      <c r="N2" s="49">
+        <f>Tabelle2137[[#This Row],[Betrag]]-Tabelle2137[[#This Row],[Abzüge]]</f>
+        <v>712.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
+        <v>305523</v>
+      </c>
+      <c r="B3" s="11">
+        <v>553.21</v>
       </c>
       <c r="C3" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D3" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>-21.171399999999998</v>
+        <v>0.03</v>
+      </c>
+      <c r="D3" s="56">
+        <f>Tabelle1332[[#This Row],[Betrag]]*Tabelle1332[[#This Row],[P_Skto]]</f>
+        <v>16.596299999999999</v>
       </c>
       <c r="E3" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>-2095.9685999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
-        <v>285292</v>
-      </c>
-      <c r="B4" s="8">
-        <v>-1870.6</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>-18.706</v>
+        <f>Tabelle1332[[#This Row],[Betrag]]*(100%-Tabelle1332[[#This Row],[P_Skto]])</f>
+        <v>536.61369999999999</v>
+      </c>
+      <c r="G3" s="57">
+        <f>SUM(B2:B3)</f>
+        <v>1132.3600000000001</v>
+      </c>
+      <c r="I3" s="41">
+        <v>440.73</v>
+      </c>
+      <c r="J3" s="41">
+        <v>423.1</v>
+      </c>
+      <c r="K3" s="41">
+        <f>Tabelle2137[Betrag]-Tabelle2137[Bezahlt]</f>
+        <v>17.629999999999995</v>
+      </c>
+      <c r="L3" s="13">
+        <f>Tabelle2137[Abzüge]/Tabelle2137[Betrag]</f>
+        <v>4.000181517028565E-2</v>
+      </c>
+      <c r="N3" s="49">
+        <f>Tabelle2137[[#This Row],[Betrag]]-Tabelle2137[[#This Row],[Abzüge]]</f>
+        <v>423.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="11">
+        <v>-595</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="56">
+        <f>Tabelle1332[[#This Row],[Betrag]]*Tabelle1332[[#This Row],[P_Skto]]</f>
+        <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>-1851.894</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
-        <v>285296</v>
-      </c>
-      <c r="B5" s="8">
-        <v>-1721.85</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>-17.218499999999999</v>
-      </c>
-      <c r="E5" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>-1704.6315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
-        <v>285294</v>
-      </c>
-      <c r="B6" s="8">
-        <v>-1498.21</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D6" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>-14.982100000000001</v>
-      </c>
-      <c r="E6" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>-1483.2279000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
-        <v>285282</v>
-      </c>
-      <c r="B7" s="8">
-        <v>-392.78</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>-3.9278</v>
-      </c>
-      <c r="E7" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>-388.85219999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
-        <v>285281</v>
-      </c>
-      <c r="B8" s="8">
-        <v>405.49</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D8" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>4.0548999999999999</v>
-      </c>
-      <c r="E8" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>401.43509999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>285149</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1358.41</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>13.584100000000001</v>
-      </c>
-      <c r="E9" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>1344.8259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>285293</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1534.8</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>15.347999999999999</v>
-      </c>
-      <c r="E10" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>1519.452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>285295</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1792.92</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D11" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>17.929200000000002</v>
-      </c>
-      <c r="E11" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>1774.9908</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>285291</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1910.53</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D12" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>19.1053</v>
-      </c>
-      <c r="E12" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>1891.4247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>285289</v>
-      </c>
-      <c r="B13" s="8">
-        <v>2206.54</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D13" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>22.0654</v>
-      </c>
-      <c r="E13" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>2184.4746</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>285283</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2214.91</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D14" s="8">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*Tabelle1332[[#This Row],[Spalte2]]</f>
-        <v>22.149100000000001</v>
-      </c>
-      <c r="E14" s="10">
-        <f>Tabelle1332[[#This Row],[Spalte1]]*(100%-Tabelle1332[[#This Row],[Spalte2]])</f>
-        <v>2192.7608999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38">
-        <f>SUBTOTAL(109,Tabelle1332[Spalte32])</f>
-        <v>1628.5896000000025</v>
+        <f>Tabelle1332[[#This Row],[Betrag]]*(100%-Tabelle1332[[#This Row],[P_Skto]])</f>
+        <v>-595</v>
+      </c>
+      <c r="N4">
+        <f>SUM(N2:N3)</f>
+        <v>1135.3800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37">
+        <f>SUBTOTAL(109,Tabelle1332[Betrag2])</f>
+        <v>503.38920000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>597.6</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="E12" s="58">
+        <f>C12/C15</f>
+        <v>0.95402298850574718</v>
+      </c>
+      <c r="G12" s="49">
+        <f>$K$2*E12</f>
+        <v>28.315402298850636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>28.8</v>
+      </c>
+      <c r="D13" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E13" s="58">
+        <f>C13/C15</f>
+        <v>4.5977011494252873E-2</v>
+      </c>
+      <c r="G13" s="49">
+        <f>$K$2*E13</f>
+        <v>1.3645977011494281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>SUM(C12:C14)</f>
+        <v>626.4</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G12:G14)</f>
+        <v>29.680000000000064</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3914,18 +4713,18 @@
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -4218,18 +5017,18 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
-        <v>268.35000000000002</v>
+        <v>1872</v>
       </c>
       <c r="B16" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.19</v>
       </c>
       <c r="C16" s="20">
         <f>Tabelle29[[#This Row],[Netto]]*Tabelle29[[#This Row],[Ust_Pct]]</f>
-        <v>18.784500000000005</v>
+        <v>355.68</v>
       </c>
       <c r="D16" s="20">
         <f>Tabelle29[[#This Row],[Netto]]*(100%+Tabelle29[[#This Row],[Ust_Pct]])</f>
-        <v>287.13450000000006</v>
+        <v>2227.6799999999998</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>253</v>
@@ -4258,18 +5057,18 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
-        <v>1872</v>
+        <v>372.75</v>
       </c>
       <c r="B17" s="17">
-        <v>0.19</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C17" s="20">
         <f>Tabelle29[[#This Row],[Netto]]*Tabelle29[[#This Row],[Ust_Pct]]</f>
-        <v>355.68</v>
+        <v>26.092500000000001</v>
       </c>
       <c r="D17" s="20">
         <f>Tabelle29[[#This Row],[Netto]]*(100%+Tabelle29[[#This Row],[Ust_Pct]])</f>
-        <v>2227.6799999999998</v>
+        <v>398.84250000000003</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>255</v>
@@ -4318,15 +5117,15 @@
       </c>
       <c r="J18" s="31">
         <f>DSUM(Tabelle29[#All],J17,J15:J16)</f>
-        <v>287.13450000000006</v>
+        <v>398.84250000000003</v>
       </c>
       <c r="K18" s="30">
         <f>DSUM(Tabelle29[#All],K17,K15:K16)</f>
-        <v>18.784500000000005</v>
+        <v>26.092500000000001</v>
       </c>
       <c r="L18" s="31">
         <f>DSUM(Tabelle29[#All],L17,L15:L16)</f>
-        <v>268.35000000000002</v>
+        <v>372.75</v>
       </c>
       <c r="M18" s="32">
         <f>DSUM(Tabelle29[#All],M17,M15:M16)</f>
@@ -4339,7 +5138,7 @@
       <c r="C19" s="20"/>
       <c r="D19" s="20">
         <f>SUBTOTAL(109,Tabelle29[Brutto])</f>
-        <v>2514.8145</v>
+        <v>2626.5225</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4373,13 +5172,13 @@
         <v>0.19</v>
       </c>
       <c r="G23" s="19">
-        <v>1190.9043999999999</v>
+        <v>2227.6799999999998</v>
       </c>
       <c r="H23" s="20">
-        <v>190.14439999999999</v>
+        <v>355.68</v>
       </c>
       <c r="I23" s="20">
-        <v>1000.76</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4392,17 +5191,17 @@
       <c r="C24" s="19">
         <v>304.05</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>257</v>
+      <c r="F24" s="34">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G24" s="19">
-        <v>1190.9043999999999</v>
+        <v>398.84250000000003</v>
       </c>
       <c r="H24" s="20">
-        <v>190.14439999999999</v>
+        <v>26.092500000000001</v>
       </c>
       <c r="I24" s="20">
-        <v>1000.76</v>
+        <v>372.75</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4415,6 +5214,12 @@
       <c r="C25" s="19">
         <v>370.32</v>
       </c>
+      <c r="F25" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -4427,6 +5232,18 @@
         <v>275.79000000000002</v>
       </c>
       <c r="D26" s="6"/>
+      <c r="F26" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" s="19">
+        <v>2626.5225</v>
+      </c>
+      <c r="H26" s="20">
+        <v>381.77250000000004</v>
+      </c>
+      <c r="I26" s="20">
+        <v>2244.75</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -4678,10 +5495,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4690,6 +5507,8 @@
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4808,7 +5627,7 @@
         <v>3850</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -5000,7 +5819,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -5014,7 +5833,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -5028,7 +5847,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -5039,7 +5858,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -5050,7 +5869,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -5061,7 +5880,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -5073,7 +5892,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -5087,8 +5906,17 @@
         <v>30</v>
       </c>
       <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" t="s">
+        <v>338</v>
+      </c>
+      <c r="N23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -5096,13 +5924,19 @@
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>339</v>
+      </c>
+      <c r="M24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -5110,27 +5944,33 @@
         <v>102</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>340</v>
+      </c>
+      <c r="M25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>103</v>
       </c>
       <c r="B26" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>33</v>
+      <c r="D26" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>226</v>
@@ -5138,8 +5978,17 @@
       <c r="I26" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>341</v>
+      </c>
+      <c r="M26" t="s">
+        <v>354</v>
+      </c>
+      <c r="N26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>192</v>
       </c>
@@ -5147,10 +5996,10 @@
         <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="H27">
         <v>803522</v>
@@ -5158,8 +6007,17 @@
       <c r="I27" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>342</v>
+      </c>
+      <c r="M27" t="s">
+        <v>355</v>
+      </c>
+      <c r="N27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>210</v>
       </c>
@@ -5167,10 +6025,10 @@
         <v>211</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>800529</v>
@@ -5178,8 +6036,14 @@
       <c r="I28" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>343</v>
+      </c>
+      <c r="M28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>222</v>
       </c>
@@ -5187,13 +6051,22 @@
         <v>223</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="L29" t="s">
+        <v>344</v>
+      </c>
+      <c r="M29" t="s">
+        <v>357</v>
+      </c>
+      <c r="N29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>283</v>
       </c>
@@ -5201,13 +6074,22 @@
         <v>284</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="L30" t="s">
+        <v>345</v>
+      </c>
+      <c r="M30" t="s">
+        <v>358</v>
+      </c>
+      <c r="N30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -5215,13 +6097,22 @@
         <v>47</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="L31" t="s">
+        <v>346</v>
+      </c>
+      <c r="M31" t="s">
+        <v>359</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>71</v>
       </c>
@@ -5229,13 +6120,22 @@
         <v>45</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="L32" t="s">
+        <v>347</v>
+      </c>
+      <c r="M32" t="s">
+        <v>360</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>72</v>
       </c>
@@ -5243,24 +6143,42 @@
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="L33" t="s">
+        <v>348</v>
+      </c>
+      <c r="M33" t="s">
+        <v>361</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>73</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="L34" t="s">
+        <v>349</v>
+      </c>
+      <c r="M34" t="s">
+        <v>357</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>75</v>
       </c>
@@ -5268,13 +6186,22 @@
         <v>63</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
+        <v>350</v>
+      </c>
+      <c r="M35" t="s">
+        <v>362</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>108</v>
       </c>
@@ -5282,13 +6209,22 @@
         <v>130</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s">
+        <v>351</v>
+      </c>
+      <c r="M36" t="s">
+        <v>363</v>
+      </c>
+      <c r="N36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>130</v>
       </c>
@@ -5296,96 +6232,206 @@
         <v>221</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="L37" t="s">
+        <v>352</v>
+      </c>
+      <c r="M37" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D38" s="6" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D39" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>300</v>
+      </c>
+      <c r="E42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>302</v>
+      </c>
+      <c r="E46" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>337</v>
+      </c>
+      <c r="E47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>323</v>
+      </c>
+      <c r="E49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>317</v>
+      </c>
+      <c r="E54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>291</v>
+      </c>
+      <c r="E57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>334</v>
+      </c>
+      <c r="E58" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>162</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E59" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>216</v>
-      </c>
-      <c r="E41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>218</v>
-      </c>
-      <c r="E42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>286</v>
-      </c>
-      <c r="E43" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>292</v>
-      </c>
-      <c r="E44" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>294</v>
-      </c>
-      <c r="E45" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>301</v>
-      </c>
-      <c r="E46" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47" t="s">
-        <v>304</v>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>384</v>
+      </c>
+      <c r="E60" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -5394,6 +6440,7 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5401,10 +6448,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5416,9 +6463,13 @@
     <col min="6" max="6" width="22" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="8"/>
     <col min="8" max="8" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.42578125" style="8"/>
-    <col min="13" max="14" width="14.42578125" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="8"/>
+    <col min="9" max="9" width="11.42578125" style="8"/>
+    <col min="10" max="10" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="8"/>
+    <col min="13" max="13" width="14.42578125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -5449,17 +6500,17 @@
       <c r="K1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="O1" s="39" t="s">
         <v>289</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5467,7 +6518,7 @@
         <v>4970</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>124</v>
@@ -5479,19 +6530,19 @@
         <v>71321</v>
       </c>
       <c r="J2" s="8">
-        <v>187.25</v>
-      </c>
-      <c r="L2" s="40">
+        <v>198</v>
+      </c>
+      <c r="L2" s="39">
         <v>517.32000000000005</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M2" s="39">
         <v>496.62</v>
       </c>
-      <c r="N2" s="40">
+      <c r="N2" s="39">
         <f>Tabelle32[[#This Row],[Betr]]-Tabelle32[[#This Row],[Gesamt]]</f>
         <v>20.700000000000045</v>
       </c>
-      <c r="O2" s="41">
+      <c r="O2" s="40">
         <f>Tabelle32[[#This Row],[Abzug]]/Tabelle32[[#This Row],[Betr]]</f>
         <v>4.0013917884481644E-2</v>
       </c>
@@ -5504,19 +6555,19 @@
         <v>131</v>
       </c>
       <c r="J3" s="8">
-        <v>-26.75</v>
-      </c>
-      <c r="L3" s="40">
+        <v>-204.6</v>
+      </c>
+      <c r="L3" s="39">
         <v>520.02</v>
       </c>
-      <c r="M3" s="40">
+      <c r="M3" s="39">
         <v>499.21</v>
       </c>
-      <c r="N3" s="40">
+      <c r="N3" s="39">
         <f>Tabelle32[[#This Row],[Betr]]-Tabelle32[[#This Row],[Gesamt]]</f>
         <v>20.810000000000002</v>
       </c>
-      <c r="O3" s="41">
+      <c r="O3" s="40">
         <f>Tabelle32[[#This Row],[Abzug]]/Tabelle32[[#This Row],[Betr]]</f>
         <v>4.0017691627245111E-2</v>
       </c>
@@ -5541,19 +6592,19 @@
         <v>164</v>
       </c>
       <c r="J4" s="8">
-        <v>162.63999999999999</v>
-      </c>
-      <c r="L4" s="40">
+        <v>-3</v>
+      </c>
+      <c r="L4" s="39">
         <v>425.39</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="39">
         <v>408.37</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N4" s="39">
         <f>Tabelle32[[#This Row],[Betr]]-Tabelle32[[#This Row],[Gesamt]]</f>
         <v>17.019999999999982</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="40">
         <f>Tabelle32[[#This Row],[Abzug]]/Tabelle32[[#This Row],[Betr]]</f>
         <v>4.0010343449540381E-2</v>
       </c>
@@ -5581,21 +6632,21 @@
       </c>
       <c r="J5" s="8">
         <f>SUBTOTAL(109,Tabelle15[Spalte1])</f>
-        <v>323.14</v>
+        <v>-9.5999999999999943</v>
       </c>
       <c r="K5" s="8">
         <f>SUBTOTAL(109,Tabelle15[Spalte2])</f>
         <v>0</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="39">
         <f>SUBTOTAL(109,Tabelle32[Betr])</f>
         <v>1462.73</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="39">
         <f>SUBTOTAL(109,Tabelle32[Gesamt])</f>
         <v>1404.1999999999998</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="39">
         <f>SUBTOTAL(109,Tabelle32[Abzug])</f>
         <v>58.53000000000003</v>
       </c>
@@ -5798,7 +6849,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>4910</v>
       </c>
@@ -5824,7 +6875,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>213</v>
       </c>
@@ -5835,26 +6886,26 @@
         <v>0</v>
       </c>
       <c r="J18" s="8">
-        <v>608.80999999999995</v>
+        <v>410.24</v>
       </c>
       <c r="K18" s="8">
-        <v>579.37</v>
+        <v>402.04</v>
       </c>
       <c r="L18" s="8">
         <f>Tabelle21[Betrag]-Tabelle21[Bezahlt]</f>
-        <v>29.439999999999941</v>
+        <v>8.1999999999999886</v>
       </c>
       <c r="M18" s="13">
         <f>Tabelle21[Abzüge]/Tabelle21[Betrag]</f>
-        <v>4.8356630147336516E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.9988299531981252E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>68019</v>
       </c>
@@ -5874,7 +6925,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>4970</v>
       </c>
@@ -5903,13 +6954,13 @@
         <v>166</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O21" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2110</v>
       </c>
@@ -5937,47 +6988,47 @@
       <c r="L22" s="9">
         <v>0.03</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="41">
         <v>37.200000000000003</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="41">
         <f>Tabelle34[Betr]*Tabelle34[Skto%]</f>
         <v>1.1160000000000001</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="41">
         <f>Tabelle34[Betr]*(100%-Tabelle34[Skto%])</f>
         <v>36.084000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>4920</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="45">
         <v>290769</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="45">
         <v>28176</v>
       </c>
-      <c r="L23" s="47">
+      <c r="L23" s="46">
         <v>0.03</v>
       </c>
-      <c r="M23" s="48">
+      <c r="M23" s="47">
         <v>168.76</v>
       </c>
-      <c r="N23" s="48">
+      <c r="N23" s="47">
         <f>Tabelle34[Betr]*Tabelle34[Skto%]</f>
         <v>5.0627999999999993</v>
       </c>
-      <c r="O23" s="48">
+      <c r="O23" s="47">
         <f>Tabelle34[Betr]*(100%-Tabelle34[Skto%])</f>
         <v>163.69719999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>4815</v>
       </c>
@@ -5999,24 +7050,24 @@
       <c r="L24" s="9">
         <v>0.03</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="41">
         <v>168.82</v>
       </c>
-      <c r="N24" s="42">
+      <c r="N24" s="41">
         <f>Tabelle34[Betr]*Tabelle34[Skto%]</f>
         <v>5.0645999999999995</v>
       </c>
-      <c r="O24" s="42">
+      <c r="O24" s="41">
         <f>Tabelle34[Betr]*(100%-Tabelle34[Skto%])</f>
         <v>163.75539999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>8731</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="9">
         <v>7.0000000000000007E-2</v>
@@ -6040,19 +7091,19 @@
       <c r="L25" s="9">
         <v>0.03</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="41">
         <v>82.95</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N25" s="41">
         <f>Tabelle34[Betr]*Tabelle34[Skto%]</f>
         <v>2.4885000000000002</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O25" s="41">
         <f>Tabelle34[Betr]*(100%-Tabelle34[Skto%])</f>
         <v>80.461500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>47</v>
       </c>
@@ -6069,17 +7120,17 @@
         <v>171</v>
       </c>
       <c r="L26" s="9"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42">
+      <c r="M26" s="41"/>
+      <c r="N26" s="41">
         <f>Tabelle34[Betr]*Tabelle34[Skto%]</f>
         <v>0</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="41">
         <f>Tabelle34[Betr]*(100%-Tabelle34[Skto%])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>206</v>
       </c>
@@ -6096,18 +7147,18 @@
         <v>172</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="M27" s="42">
+        <v>297</v>
+      </c>
+      <c r="M27" s="41">
         <f>SUBTOTAL(109,Tabelle34[Betr])</f>
         <v>457.72999999999996</v>
       </c>
-      <c r="O27" s="42">
+      <c r="O27" s="41">
         <f>SUBTOTAL(109,Tabelle34[Netto])</f>
         <v>443.99809999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>207</v>
       </c>
@@ -6115,7 +7166,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>236</v>
       </c>
@@ -6123,7 +7174,7 @@
         <v>16830</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>227</v>
       </c>
@@ -6134,22 +7185,25 @@
         <v>194</v>
       </c>
       <c r="J30" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="L30" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="M30" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="N30" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="O30" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>230</v>
       </c>
@@ -6162,22 +7216,26 @@
       <c r="F31" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="K31" s="36">
-        <v>1896.06</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="M31" s="36">
+      <c r="J31" s="52"/>
+      <c r="K31" s="53">
+        <v>306040</v>
+      </c>
+      <c r="L31" s="54">
+        <v>307.52</v>
+      </c>
+      <c r="M31" s="55">
+        <v>0.03</v>
+      </c>
+      <c r="N31" s="54">
         <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
-        <v>18.960599999999999</v>
-      </c>
-      <c r="N31" s="36">
-        <f>Tabelle18[[#This Row],[Betr]]*(100%-Tabelle18[[#This Row],[Skto%]])</f>
-        <v>1877.0993999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.2255999999999982</v>
+      </c>
+      <c r="O31" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
+        <v>298.2944</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>55010315</v>
       </c>
@@ -6190,21 +7248,29 @@
       <c r="F32" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="36">
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="54">
         <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
         <v>0</v>
       </c>
-      <c r="N32" s="36">
-        <f>Tabelle18[[#This Row],[Betr]]*(100%-Tabelle18[[#This Row],[Skto%]])</f>
+      <c r="O32" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
         <v>0</v>
       </c>
-      <c r="P32" s="8">
+      <c r="Q32" s="8">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T32" s="8">
+        <v>33337</v>
+      </c>
+      <c r="U32" s="8">
+        <v>28696.737539812344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>91000628</v>
       </c>
@@ -6217,123 +7283,352 @@
       <c r="F33" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="36">
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="54">
         <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
         <v>0</v>
       </c>
-      <c r="N33" s="36">
-        <f>Tabelle18[[#This Row],[Betr]]*(100%-Tabelle18[[#This Row],[Skto%]])</f>
+      <c r="O33" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
         <v>0</v>
       </c>
-      <c r="P33" s="8">
+      <c r="Q33" s="8">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U33" s="48">
+        <v>50.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E34" s="14" t="s">
         <v>233</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="36">
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="54">
         <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
         <v>0</v>
       </c>
-      <c r="N34" s="36">
-        <f>Tabelle18[[#This Row],[Betr]]*(100%-Tabelle18[[#This Row],[Skto%]])</f>
+      <c r="O34" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K35" s="36"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="36">
+      <c r="U34" s="8">
+        <v>28746.957539812345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="54">
         <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
         <v>0</v>
       </c>
-      <c r="N35" s="36">
-        <f>Tabelle18[[#This Row],[Betr]]*(100%-Tabelle18[[#This Row],[Skto%]])</f>
+      <c r="O35" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K36" s="36"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="36">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="54">
         <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
         <v>0</v>
       </c>
-      <c r="N36" s="36">
-        <f>Tabelle18[[#This Row],[Betr]]*(100%-Tabelle18[[#This Row],[Skto%]])</f>
+      <c r="O36" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K37" s="36"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="36">
+      <c r="Q36" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R36" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="54">
         <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
         <v>0</v>
       </c>
-      <c r="N37" s="36">
-        <f>Tabelle18[[#This Row],[Betr]]*(100%-Tabelle18[[#This Row],[Skto%]])</f>
+      <c r="O37" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K38" s="36"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="36">
+      <c r="Q37" s="8">
+        <v>510.36</v>
+      </c>
+      <c r="R37" s="8">
+        <v>93.24</v>
+      </c>
+      <c r="S37" s="8">
+        <v>603.6</v>
+      </c>
+      <c r="T37" s="8">
+        <v>18.108000000000001</v>
+      </c>
+      <c r="U37" s="8">
+        <v>3.4405200000000002</v>
+      </c>
+      <c r="V37" s="8">
+        <v>21.54852</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J38" s="52"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="54">
         <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
         <v>0</v>
       </c>
-      <c r="N38" s="36">
-        <f>Tabelle18[[#This Row],[Betr]]*(100%-Tabelle18[[#This Row],[Skto%]])</f>
+      <c r="O38" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K39" s="36"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="36">
+      <c r="Q38" s="8">
+        <v>82.8</v>
+      </c>
+      <c r="S38" s="8">
+        <v>82.8</v>
+      </c>
+      <c r="T38" s="8">
+        <v>2.484</v>
+      </c>
+      <c r="U38" s="8">
+        <v>0.47195999999999999</v>
+      </c>
+      <c r="V38" s="8">
+        <v>2.9559600000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J39" s="52"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="54">
         <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
         <v>0</v>
       </c>
-      <c r="N39" s="36">
-        <f>Tabelle18[[#This Row],[Betr]]*(100%-Tabelle18[[#This Row],[Skto%]])</f>
+      <c r="O39" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K40" s="36">
+      <c r="Q39" s="8">
+        <v>159.6</v>
+      </c>
+      <c r="S39" s="8">
+        <v>159.6</v>
+      </c>
+      <c r="T39" s="8">
+        <v>4.7879999999999994</v>
+      </c>
+      <c r="U39" s="8">
+        <v>0.90971999999999986</v>
+      </c>
+      <c r="V39" s="8">
+        <v>5.6977199999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J40" s="52"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J41" s="52"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J42" s="52"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J43" s="52"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J44" s="52"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J45" s="52"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J46" s="52"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J47" s="52"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J48" s="52"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J49" s="52"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]*Tabelle18[[#This Row],[Skto%]]</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="54">
+        <f>Tabelle18[[#This Row],[Betr]]-Tabelle18[[#This Row],[Skto]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="L50" s="36">
         <f>SUBTOTAL(109,Tabelle18[Betr])</f>
-        <v>1896.06</v>
-      </c>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36">
+        <v>307.52</v>
+      </c>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36">
         <f>SUBTOTAL(109,Tabelle18[Skto])</f>
-        <v>18.960599999999999</v>
-      </c>
-      <c r="N40" s="37">
+        <v>9.2255999999999982</v>
+      </c>
+      <c r="O50" s="41">
         <f>SUBTOTAL(109,Tabelle18[Gesamt])</f>
-        <v>1877.0993999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K43" s="8">
+        <v>298.2944</v>
+      </c>
+    </row>
+    <row r="51" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K51" s="8">
         <v>850.87</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L51" s="8">
         <v>1111.0899999999999</v>
       </c>
-      <c r="M43" s="8">
-        <f>K43/L43</f>
+      <c r="M51" s="8">
+        <f>K51/L51</f>
         <v>0.76579755015345297</v>
+      </c>
+    </row>
+    <row r="55" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="O55" s="8">
+        <v>990.25</v>
+      </c>
+      <c r="P55" s="8">
+        <f>O55-Tabelle18[[#Totals],[Gesamt]]</f>
+        <v>691.9556</v>
       </c>
     </row>
   </sheetData>
@@ -6360,11 +7655,1307 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle8"/>
+  <dimension ref="A1:P26"/>
+  <sheetViews>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="11.42578125" style="6"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>305552</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1042671</v>
+      </c>
+      <c r="C2" s="41">
+        <v>410.24</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E2" s="41">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>8.2048000000000005</v>
+      </c>
+      <c r="F2" s="51">
+        <v>43258</v>
+      </c>
+      <c r="G2" s="8">
+        <v>14</v>
+      </c>
+      <c r="H2" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43272</v>
+      </c>
+      <c r="I2" s="51">
+        <v>43280</v>
+      </c>
+      <c r="J2" s="8">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v>3</v>
+      </c>
+      <c r="M2" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>402.03520000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>305685</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1004380</v>
+      </c>
+      <c r="C3" s="41">
+        <v>443.13</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E3" s="41">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>8.8626000000000005</v>
+      </c>
+      <c r="F3" s="51">
+        <v>43266</v>
+      </c>
+      <c r="G3" s="8">
+        <v>8</v>
+      </c>
+      <c r="H3" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43274</v>
+      </c>
+      <c r="I3" s="51">
+        <v>43280</v>
+      </c>
+      <c r="J3" s="8">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>11</v>
+      </c>
+      <c r="K3" s="6">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v>3</v>
+      </c>
+      <c r="M3" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>434.26740000000001</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>305637</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1005910</v>
+      </c>
+      <c r="C4" s="41">
+        <v>1232.6199999999999</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>24.6524</v>
+      </c>
+      <c r="F4" s="51">
+        <v>43264</v>
+      </c>
+      <c r="G4" s="8">
+        <v>14</v>
+      </c>
+      <c r="H4" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43278</v>
+      </c>
+      <c r="I4" s="51">
+        <v>43280</v>
+      </c>
+      <c r="J4" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>13</v>
+      </c>
+      <c r="K4" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-1</v>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M4" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>1207.9675999999999</v>
+      </c>
+      <c r="O4" s="35">
+        <v>1004380</v>
+      </c>
+      <c r="P4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>305806</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1005910</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1523.24</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>30.4648</v>
+      </c>
+      <c r="F5" s="51">
+        <v>43277</v>
+      </c>
+      <c r="G5" s="8">
+        <v>14</v>
+      </c>
+      <c r="H5" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43291</v>
+      </c>
+      <c r="I5" s="51">
+        <v>43294</v>
+      </c>
+      <c r="J5" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>14</v>
+      </c>
+      <c r="K5" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>0</v>
+      </c>
+      <c r="L5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M5" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>1492.7752</v>
+      </c>
+      <c r="O5" s="59">
+        <v>305685</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>305826</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1050751</v>
+      </c>
+      <c r="C6" s="41">
+        <v>95.14</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>2.8542000000000001</v>
+      </c>
+      <c r="F6" s="51">
+        <v>43279</v>
+      </c>
+      <c r="G6" s="8">
+        <v>14</v>
+      </c>
+      <c r="H6" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43293</v>
+      </c>
+      <c r="I6" s="51">
+        <v>43297</v>
+      </c>
+      <c r="J6" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>13</v>
+      </c>
+      <c r="K6" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-1</v>
+      </c>
+      <c r="L6" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M6" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>92.285799999999995</v>
+      </c>
+      <c r="O6" s="35">
+        <v>1042671</v>
+      </c>
+      <c r="P6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>305880</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1042340</v>
+      </c>
+      <c r="C7" s="41">
+        <v>197.19</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>3.9438</v>
+      </c>
+      <c r="F7" s="51">
+        <v>43284</v>
+      </c>
+      <c r="G7" s="8">
+        <v>14</v>
+      </c>
+      <c r="H7" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43298</v>
+      </c>
+      <c r="I7" s="51">
+        <v>43297</v>
+      </c>
+      <c r="J7" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>10</v>
+      </c>
+      <c r="K7" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-4</v>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M7" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>193.24619999999999</v>
+      </c>
+      <c r="O7" s="59">
+        <v>305552</v>
+      </c>
+      <c r="P7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>305871</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1002521</v>
+      </c>
+      <c r="C8" s="41">
+        <v>211.86</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>6.3558000000000003</v>
+      </c>
+      <c r="F8" s="51">
+        <v>43283</v>
+      </c>
+      <c r="G8" s="8">
+        <v>14</v>
+      </c>
+      <c r="H8" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43297</v>
+      </c>
+      <c r="I8" s="51">
+        <v>43298</v>
+      </c>
+      <c r="J8" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>12</v>
+      </c>
+      <c r="K8" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-2</v>
+      </c>
+      <c r="L8" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M8" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>205.50420000000003</v>
+      </c>
+      <c r="O8" s="35">
+        <v>1053130</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>305872</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1002521</v>
+      </c>
+      <c r="C9" s="41">
+        <v>143.04</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="E9" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>4.2911999999999999</v>
+      </c>
+      <c r="F9" s="51">
+        <v>43283</v>
+      </c>
+      <c r="G9" s="8">
+        <v>14</v>
+      </c>
+      <c r="H9" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43297</v>
+      </c>
+      <c r="I9" s="51">
+        <v>43298</v>
+      </c>
+      <c r="J9" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>12</v>
+      </c>
+      <c r="K9" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-2</v>
+      </c>
+      <c r="L9" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M9" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>138.74879999999999</v>
+      </c>
+      <c r="O9" s="59">
+        <v>305824</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>305824</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1053130</v>
+      </c>
+      <c r="C10" s="41">
+        <v>638.16</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>6.3815999999999997</v>
+      </c>
+      <c r="F10" s="51">
+        <v>43278</v>
+      </c>
+      <c r="G10" s="8">
+        <v>14</v>
+      </c>
+      <c r="H10" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43292</v>
+      </c>
+      <c r="I10" s="51">
+        <v>43298</v>
+      </c>
+      <c r="J10" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>15</v>
+      </c>
+      <c r="K10" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>631.77839999999992</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="P10" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>305905</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1004050</v>
+      </c>
+      <c r="C11" s="41">
+        <v>611.51</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>12.2302</v>
+      </c>
+      <c r="F11" s="51">
+        <v>43285</v>
+      </c>
+      <c r="G11" s="8">
+        <v>14</v>
+      </c>
+      <c r="H11" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43299</v>
+      </c>
+      <c r="I11" s="51">
+        <v>43299</v>
+      </c>
+      <c r="J11" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>11</v>
+      </c>
+      <c r="K11" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-3</v>
+      </c>
+      <c r="L11" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>599.27980000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>305913</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1002521</v>
+      </c>
+      <c r="C12" s="41">
+        <v>110.51</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="E12" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>3.3153000000000001</v>
+      </c>
+      <c r="F12" s="51">
+        <v>43285</v>
+      </c>
+      <c r="G12" s="8">
+        <v>14</v>
+      </c>
+      <c r="H12" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43299</v>
+      </c>
+      <c r="I12" s="51">
+        <v>43300</v>
+      </c>
+      <c r="J12" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>12</v>
+      </c>
+      <c r="K12" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-2</v>
+      </c>
+      <c r="L12" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>107.19470000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>306027</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1053090</v>
+      </c>
+      <c r="C13" s="41">
+        <v>338.02</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>3.3801999999999999</v>
+      </c>
+      <c r="F13" s="51">
+        <v>43294</v>
+      </c>
+      <c r="G13" s="8">
+        <v>14</v>
+      </c>
+      <c r="H13" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43308</v>
+      </c>
+      <c r="I13" s="51">
+        <v>43304</v>
+      </c>
+      <c r="J13" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>7</v>
+      </c>
+      <c r="K13" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-7</v>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>334.63979999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>305960</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1053140</v>
+      </c>
+      <c r="C14" s="41">
+        <v>484.2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>4.8419999999999996</v>
+      </c>
+      <c r="F14" s="51">
+        <v>43290</v>
+      </c>
+      <c r="G14" s="8">
+        <v>14</v>
+      </c>
+      <c r="H14" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43304</v>
+      </c>
+      <c r="I14" s="51">
+        <v>43304</v>
+      </c>
+      <c r="J14" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>11</v>
+      </c>
+      <c r="K14" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-3</v>
+      </c>
+      <c r="L14" s="5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>479.358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>305953</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1053130</v>
+      </c>
+      <c r="C15" s="41">
+        <v>719.43</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>7.1942999999999993</v>
+      </c>
+      <c r="F15" s="51">
+        <v>43290</v>
+      </c>
+      <c r="G15" s="8">
+        <v>14</v>
+      </c>
+      <c r="H15" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43304</v>
+      </c>
+      <c r="I15" s="51">
+        <v>43304</v>
+      </c>
+      <c r="J15" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>11</v>
+      </c>
+      <c r="K15" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-3</v>
+      </c>
+      <c r="L15" s="5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>712.23569999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>305940</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1005910</v>
+      </c>
+      <c r="C16" s="41">
+        <v>1012.24</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E16" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>20.244800000000001</v>
+      </c>
+      <c r="F16" s="51">
+        <v>43287</v>
+      </c>
+      <c r="G16" s="8">
+        <v>14</v>
+      </c>
+      <c r="H16" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43301</v>
+      </c>
+      <c r="I16" s="51">
+        <v>43304</v>
+      </c>
+      <c r="J16" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>12</v>
+      </c>
+      <c r="K16" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-2</v>
+      </c>
+      <c r="L16" s="5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>991.99519999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>306070</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1054301</v>
+      </c>
+      <c r="C17" s="41">
+        <v>405.54</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>4.0554000000000006</v>
+      </c>
+      <c r="F17" s="51">
+        <v>43299</v>
+      </c>
+      <c r="G17" s="8">
+        <v>14</v>
+      </c>
+      <c r="H17" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43313</v>
+      </c>
+      <c r="I17" s="51">
+        <v>43305</v>
+      </c>
+      <c r="J17" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>5</v>
+      </c>
+      <c r="K17" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-9</v>
+      </c>
+      <c r="L17" s="5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M17" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>401.4846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>305910</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1042671</v>
+      </c>
+      <c r="C18" s="41">
+        <v>367.22</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E18" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>7.3444000000000003</v>
+      </c>
+      <c r="F18" s="51">
+        <v>43285</v>
+      </c>
+      <c r="G18" s="8">
+        <v>14</v>
+      </c>
+      <c r="H18" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43299</v>
+      </c>
+      <c r="I18" s="51">
+        <v>43305</v>
+      </c>
+      <c r="J18" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>15</v>
+      </c>
+      <c r="K18" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>359.87560000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>306077</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1042671</v>
+      </c>
+      <c r="C19" s="41">
+        <v>410.24</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E19" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>8.2048000000000005</v>
+      </c>
+      <c r="F19" s="51">
+        <v>43299</v>
+      </c>
+      <c r="G19" s="8">
+        <v>14</v>
+      </c>
+      <c r="H19" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43313</v>
+      </c>
+      <c r="I19" s="51">
+        <v>43305</v>
+      </c>
+      <c r="J19" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>5</v>
+      </c>
+      <c r="K19" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-9</v>
+      </c>
+      <c r="L19" s="5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M19" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>402.03520000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>306079</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1054401</v>
+      </c>
+      <c r="C20" s="41">
+        <v>162.22</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>1.6222000000000001</v>
+      </c>
+      <c r="F20" s="51">
+        <v>43299</v>
+      </c>
+      <c r="G20" s="8">
+        <v>14</v>
+      </c>
+      <c r="H20" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43313</v>
+      </c>
+      <c r="I20" s="51">
+        <v>43311</v>
+      </c>
+      <c r="J20" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>9</v>
+      </c>
+      <c r="K20" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-5</v>
+      </c>
+      <c r="L20" s="5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M20" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>160.59780000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>306031</v>
+      </c>
+      <c r="B21" s="38">
+        <v>1042340</v>
+      </c>
+      <c r="C21" s="41">
+        <v>319.64999999999998</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E21" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>6.3929999999999998</v>
+      </c>
+      <c r="F21" s="51">
+        <v>43297</v>
+      </c>
+      <c r="G21" s="8">
+        <v>14</v>
+      </c>
+      <c r="H21" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43311</v>
+      </c>
+      <c r="I21" s="51">
+        <v>43311</v>
+      </c>
+      <c r="J21" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>11</v>
+      </c>
+      <c r="K21" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-3</v>
+      </c>
+      <c r="L21" s="5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M21" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>313.25700000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>306040</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1002581</v>
+      </c>
+      <c r="C22" s="41">
+        <v>307.52</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="E22" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>9.2255999999999982</v>
+      </c>
+      <c r="F22" s="51">
+        <v>43297</v>
+      </c>
+      <c r="G22" s="8">
+        <v>14</v>
+      </c>
+      <c r="H22" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43311</v>
+      </c>
+      <c r="I22" s="51">
+        <v>43312</v>
+      </c>
+      <c r="J22" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>12</v>
+      </c>
+      <c r="K22" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-2</v>
+      </c>
+      <c r="L22" s="5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M22" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>298.2944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>306109</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1004730</v>
+      </c>
+      <c r="C23" s="41">
+        <v>1502.89</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E23" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>30.057800000000004</v>
+      </c>
+      <c r="F23" s="51">
+        <v>43301</v>
+      </c>
+      <c r="G23" s="8">
+        <v>8</v>
+      </c>
+      <c r="H23" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43309</v>
+      </c>
+      <c r="I23" s="51">
+        <v>43312</v>
+      </c>
+      <c r="J23" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>8</v>
+      </c>
+      <c r="K23" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M23" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>1472.8322000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>306048</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1050751</v>
+      </c>
+      <c r="C24" s="41">
+        <v>102.85</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="E24" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>3.0854999999999997</v>
+      </c>
+      <c r="F24" s="51">
+        <v>43298</v>
+      </c>
+      <c r="G24" s="8">
+        <v>14</v>
+      </c>
+      <c r="H24" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43312</v>
+      </c>
+      <c r="I24" s="51">
+        <v>43313</v>
+      </c>
+      <c r="J24" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>12</v>
+      </c>
+      <c r="K24" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-2</v>
+      </c>
+      <c r="L24" s="5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M24" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>99.764499999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>306047</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1002521</v>
+      </c>
+      <c r="C25" s="41">
+        <v>165.08</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="E25" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>4.9523999999999999</v>
+      </c>
+      <c r="F25" s="51">
+        <v>43298</v>
+      </c>
+      <c r="G25" s="8">
+        <v>14</v>
+      </c>
+      <c r="H25" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43312</v>
+      </c>
+      <c r="I25" s="51">
+        <v>43313</v>
+      </c>
+      <c r="J25" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>12</v>
+      </c>
+      <c r="K25" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-2</v>
+      </c>
+      <c r="L25" s="5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M25" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>160.1276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>306051</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1005910</v>
+      </c>
+      <c r="C26" s="41">
+        <v>1527.36</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E26" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]*Tabelle40[[#This Row],[Skto%]]</f>
+        <v>30.5472</v>
+      </c>
+      <c r="F26" s="51">
+        <v>43298</v>
+      </c>
+      <c r="G26" s="8">
+        <v>14</v>
+      </c>
+      <c r="H26" s="51">
+        <f>Tabelle40[[#This Row],[Von]]+Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>43312</v>
+      </c>
+      <c r="I26" s="51">
+        <v>43314</v>
+      </c>
+      <c r="J26" s="38">
+        <f>NETWORKDAYS(Tabelle40[[#This Row],[Von]],Tabelle40[[#This Row],[Bezahlt]])</f>
+        <v>13</v>
+      </c>
+      <c r="K26" s="5">
+        <f>Tabelle40[[#This Row],[Bezahlt workdays diff]]-Tabelle40[[#This Row],[SKtoTage]]</f>
+        <v>-1</v>
+      </c>
+      <c r="L26" s="5" t="str">
+        <f>IF(Tabelle40[[#This Row],[Später(Tage)]]&gt;0,Tabelle40[[#This Row],[Später(Tage)]],"")</f>
+        <v/>
+      </c>
+      <c r="M26" s="49">
+        <f>Tabelle40[[#This Row],[Betr]]-Tabelle40[[#This Row],[SktoBetr]]</f>
+        <v>1496.8127999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6378,8 +8969,20 @@
       <c r="A1" t="s">
         <v>23</v>
       </c>
+      <c r="D1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" t="s">
+        <v>327</v>
+      </c>
       <c r="F2" t="s">
         <v>215</v>
       </c>
@@ -6436,92 +9039,94 @@
         <v>4546</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="2">
-        <v>70400</v>
-      </c>
-      <c r="C10">
-        <v>3811</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B11" s="2">
+        <v>70804</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3800</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E10">
-        <v>4730</v>
-      </c>
-      <c r="G10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6">
+        <v>4735</v>
+      </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="2">
-        <v>70722</v>
-      </c>
-      <c r="F12">
-        <v>4740</v>
-      </c>
-      <c r="G12" t="s">
-        <v>119</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2">
-        <v>70459</v>
-      </c>
-      <c r="C13">
-        <v>3810</v>
-      </c>
-      <c r="D13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13">
-        <v>4738</v>
-      </c>
-      <c r="G13" t="s">
-        <v>120</v>
+        <v>72002</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>4736</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>160</v>
@@ -6532,70 +9137,275 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="B14" s="2">
-        <v>71390</v>
-      </c>
-      <c r="E14">
+        <v>72803</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <v>4736</v>
       </c>
-      <c r="G14" t="s">
-        <v>158</v>
+      <c r="G14" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="I14" s="4">
-        <v>42913</v>
+        <v>43437</v>
       </c>
       <c r="J14" s="5">
         <f>WEEKNUM(Tabelle118[[#This Row],[DATUM]],21)</f>
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="2">
-        <v>71390</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>4735</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>157</v>
+        <v>84</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6">
+        <v>3810</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="I15" s="4">
-        <v>42915</v>
+        <v>43447</v>
       </c>
       <c r="J15" s="5">
         <f>WEEKNUM(Tabelle118[[#This Row],[DATUM]],21)</f>
-        <v>26</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="2">
+        <v>74802</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>4738</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="F17" s="6">
+        <v>4739</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2">
+        <v>70400</v>
+      </c>
+      <c r="C25">
+        <v>3811</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25">
+        <v>4730</v>
+      </c>
+      <c r="G25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="2">
+        <v>70722</v>
+      </c>
+      <c r="F27">
+        <v>4740</v>
+      </c>
+      <c r="G27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2">
+        <v>70459</v>
+      </c>
+      <c r="C28">
+        <v>3810</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28">
+        <v>4738</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="2">
+        <v>71390</v>
+      </c>
+      <c r="E29">
+        <v>4736</v>
+      </c>
+      <c r="G29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="2">
+        <v>71390</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>4735</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="5">
+  <tableParts count="7">
+    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
